--- a/第12组/项目计划表.xlsx
+++ b/第12组/项目计划表.xlsx
@@ -55,15 +55,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
+    <t>1、熟悉需求规格说明书；2、确定pc端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
+    <t>1、熟悉APP手机端UI设计；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、熟悉需求规格说明书；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）</t>
+    <t>1、熟悉Android项目-Java项目整合开发-天下纵横-系统需求分析-吴绍根；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +451,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -488,7 +488,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -508,7 +508,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>

--- a/第12组/项目计划表.xlsx
+++ b/第12组/项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,11 +59,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、熟悉APP手机端UI设计；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
+    <t>1、熟悉APP手机端UI设计；2、确定手机端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、熟悉Android项目-Java项目整合开发-天下纵横-系统需求分析-吴绍根；2、确定用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
+    <t>1、熟悉Android项目-Java项目整合开发-天下纵横-系统需求分析-吴绍根；2、确定手机端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +451,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/第12组/项目计划表.xlsx
+++ b/第12组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>1、熟悉Android项目-Java项目整合开发-天下纵横-系统需求分析-吴绍根；2、确定手机端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +459,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -477,7 +485,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -490,7 +498,9 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -500,7 +510,9 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -510,7 +522,9 @@
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -520,7 +534,9 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">

--- a/第12组/项目计划表.xlsx
+++ b/第12组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -39,35 +39,71 @@
     <t>日期：2018.10.08 第六周周一</t>
   </si>
   <si>
+    <t>1、熟悉需求规格说明书；2、确定pc端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、熟悉APP手机端UI设计；2、确定手机端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、熟悉Android项目-Java项目整合开发-天下纵横-系统需求分析-吴绍根；2、确定手机端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>余舒章</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>余舒章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>王嘉宇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>王嘉宇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>许俊杰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>许俊杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>庞森杰</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、熟悉需求规格说明书；2、确定pc端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户群组管理&gt;）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、熟悉APP手机端UI设计；2、确定手机端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、熟悉Android项目-Java项目整合开发-天下纵横-系统需求分析-吴绍根；2、确定手机端用例（参与者为&lt;普通用户&gt;，功能模块为&lt;用户管理&gt;）最后汇总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成情况</t>
+    <t>庞森杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善pc端用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善android端用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善android端用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -459,7 +495,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -485,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -493,49 +529,49 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -582,27 +618,51 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">

--- a/第12组/项目计划表.xlsx
+++ b/第12组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -108,6 +108,37 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余舒章</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>王嘉宇</t>
+  </si>
+  <si>
+    <t>许俊杰</t>
+  </si>
+  <si>
+    <t>庞森杰</t>
+  </si>
+  <si>
+    <t>日期：2018.10.10 第六周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写6条用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写6条用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写6条用例规约</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -684,6 +715,74 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/第12组/项目计划表.xlsx
+++ b/第12组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -111,34 +111,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>余舒章</t>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>王嘉宇</t>
-  </si>
-  <si>
-    <t>许俊杰</t>
-  </si>
-  <si>
-    <t>庞森杰</t>
+    <t>设计安卓端界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写分配到的用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写分配到的用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日期：2018.10.10 第六周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>写6条用例规约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>写6条用例规约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>写6条用例规约</t>
+    <t>日期：2018.10.11 第六周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改及完善用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计安卓端界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论并设计er图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.15 第七周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.17 第七周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +182,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -206,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +249,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -537,12 +577,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -613,26 +653,26 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -703,97 +743,397 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D40" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="C50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A55:D56"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A36:D37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
